--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/HAWAII_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/HAWAII_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Huejucar</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Yahualica De Gonzalez Gallo</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zapotitlan De Vadillo</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De Leon</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Esteban Atatlahuca</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santo Tomas Ocotepec</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1599,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1643,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -1656,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
